--- a/9.总评提交文档/实验7：工作量统计.xlsx
+++ b/9.总评提交文档/实验7：工作量统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
   <si>
     <t>资源名称</t>
   </si>
@@ -27,15 +27,9 @@
     <t>余锋伟</t>
   </si>
   <si>
-    <t>477.27 hrs</t>
-  </si>
-  <si>
     <t xml:space="preserve">   工作量估计与统计分析</t>
   </si>
   <si>
-    <t>25.07 hrs</t>
-  </si>
-  <si>
     <t xml:space="preserve">   项目调研</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t xml:space="preserve">   每日更新github</t>
   </si>
   <si>
-    <t>24.82 hrs</t>
-  </si>
-  <si>
     <t xml:space="preserve">   确定测试需求</t>
   </si>
   <si>
@@ -156,15 +147,9 @@
     <t xml:space="preserve">   实验6文档编写</t>
   </si>
   <si>
-    <t>0 hrs</t>
-  </si>
-  <si>
     <t>黄新越</t>
   </si>
   <si>
-    <t>448.77 hrs</t>
-  </si>
-  <si>
     <t xml:space="preserve">   安装测试，静态测试，动态测试，配置文件测试</t>
   </si>
   <si>
@@ -216,9 +201,6 @@
     <t>李晓聪</t>
   </si>
   <si>
-    <t>452.88 hrs</t>
-  </si>
-  <si>
     <t xml:space="preserve">   目的及成果</t>
   </si>
   <si>
@@ -267,9 +249,6 @@
     <t>杨云</t>
   </si>
   <si>
-    <t>428.93 hrs</t>
-  </si>
-  <si>
     <t xml:space="preserve">   配置管理</t>
   </si>
   <si>
@@ -289,13 +268,34 @@
   </si>
   <si>
     <t xml:space="preserve">   实验8文档编写</t>
+  </si>
+  <si>
+    <t>508.03 hrs</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>23.38 hrs</t>
+  </si>
+  <si>
+    <t>23.13 hrs</t>
+  </si>
+  <si>
+    <t>500.52 hrs</t>
+  </si>
+  <si>
+    <t>489.9 hrs</t>
+  </si>
+  <si>
+    <t>521.53 hrs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,14 +306,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF363636"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -382,19 +374,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -719,23 +708,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -743,79 +732,79 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -823,55 +812,55 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
@@ -879,319 +868,319 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>9</v>
@@ -1199,194 +1188,194 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -1394,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -1423,130 +1412,130 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
@@ -1554,7 +1543,7 @@
         <v>33</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
@@ -1562,7 +1551,7 @@
         <v>34</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
@@ -1570,89 +1559,83 @@
         <v>35</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="4"/>
-      <c r="B118" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1666,7 +1649,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1679,7 +1662,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/9.总评提交文档/实验7：工作量统计.xlsx
+++ b/9.总评提交文档/实验7：工作量统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="93">
   <si>
     <t>资源名称</t>
   </si>
@@ -138,9 +138,6 @@
     <t xml:space="preserve">   细化配置文件读写模块</t>
   </si>
   <si>
-    <t>58 hrs</t>
-  </si>
-  <si>
     <t xml:space="preserve">   修改实现报告</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t xml:space="preserve">   测试报告文档大纲规范</t>
   </si>
   <si>
-    <t xml:space="preserve">   更新各类文档</t>
-  </si>
-  <si>
     <t xml:space="preserve">   nginx监控基本操作分析</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t xml:space="preserve">   实验8文档编写</t>
   </si>
   <si>
-    <t>508.03 hrs</t>
-  </si>
-  <si>
     <t>3 hrs</t>
   </si>
   <si>
@@ -282,13 +273,28 @@
     <t>23.13 hrs</t>
   </si>
   <si>
-    <t>500.52 hrs</t>
-  </si>
-  <si>
-    <t>489.9 hrs</t>
-  </si>
-  <si>
-    <t>521.53 hrs</t>
+    <t>308.52 hrs</t>
+  </si>
+  <si>
+    <t>15.03 hrs</t>
+  </si>
+  <si>
+    <t>26.37 hrs</t>
+  </si>
+  <si>
+    <t>12.35 hrs</t>
+  </si>
+  <si>
+    <t>290.73 hrs</t>
+  </si>
+  <si>
+    <t>29 hrs</t>
+  </si>
+  <si>
+    <t>306.48 hrs</t>
+  </si>
+  <si>
+    <t>354.75 hrs</t>
   </si>
 </sst>
 </file>
@@ -689,7 +695,7 @@
   <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -708,10 +714,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -724,7 +730,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -735,15 +741,15 @@
         <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -756,10 +762,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -780,7 +786,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
@@ -796,7 +802,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
@@ -804,18 +810,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -823,20 +829,20 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>20</v>
@@ -844,15 +850,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
@@ -860,7 +866,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
@@ -868,7 +874,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
@@ -876,7 +882,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
@@ -884,18 +890,18 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -903,87 +909,87 @@
         <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -996,31 +1002,31 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>9</v>
@@ -1028,18 +1034,18 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -1047,7 +1053,7 @@
         <v>67</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -1055,71 +1061,71 @@
         <v>68</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -1127,108 +1133,108 @@
         <v>73</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>9</v>
@@ -1236,63 +1242,63 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>20</v>
@@ -1300,7 +1306,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>9</v>
@@ -1308,15 +1314,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>20</v>
@@ -1324,143 +1330,143 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>9</v>
@@ -1468,15 +1474,15 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>9</v>
@@ -1484,39 +1490,39 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>9</v>
@@ -1524,15 +1530,15 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>20</v>
@@ -1540,15 +1546,15 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>9</v>
@@ -1556,15 +1562,15 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>20</v>
@@ -1572,34 +1578,34 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
@@ -1607,7 +1613,7 @@
         <v>14</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -1615,7 +1621,7 @@
         <v>28</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
@@ -1623,7 +1629,7 @@
         <v>15</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -1631,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
